--- a/imports/Consumo.xlsx
+++ b/imports/Consumo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Limpieza\LIMPIEZA_APP\sop_lavado_app\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9A1DAD-8C61-46AF-8C5C-3EFF5760F457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F21DCE0-6B14-46FE-8C66-394CF845684E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
   <si>
     <t>BD</t>
   </si>
@@ -65,9 +65,6 @@
     <t>CM-DS-002</t>
   </si>
   <si>
-    <t>x 1m2 = 2 mL</t>
-  </si>
-  <si>
     <t>CM-DS-001</t>
   </si>
   <si>
@@ -102,13 +99,91 @@
   </si>
   <si>
     <t>mL</t>
+  </si>
+  <si>
+    <t>AGRUPAMIENTO</t>
+  </si>
+  <si>
+    <t>consecutivo</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>grupo</t>
+  </si>
+  <si>
+    <t>estilo</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>NOTAS</t>
+  </si>
+  <si>
+    <t>Trapear</t>
+  </si>
+  <si>
+    <t>WC Exterior</t>
+  </si>
+  <si>
+    <t>WC Interior</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>descripcion</t>
+  </si>
+  <si>
+    <t>Vidrio/Espejo</t>
+  </si>
+  <si>
+    <t>uso</t>
+  </si>
+  <si>
+    <t>x 2m2 = 2 mL</t>
+  </si>
+  <si>
+    <t>Consumo por área (m²)</t>
+  </si>
+  <si>
+    <t>Dosis fija</t>
+  </si>
+  <si>
+    <t>Dosis fija WC interior</t>
+  </si>
+  <si>
+    <t>Dosis fija WC exterior</t>
+  </si>
+  <si>
+    <t>Consumo total solucion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,16 +205,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -158,8 +225,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF94DCF8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCAEDFB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -191,11 +282,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -210,19 +321,42 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCAEDFB"/>
+      <color rgb="FF94DCF8"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -497,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -508,17 +642,29 @@
     <col min="1" max="1" width="15.33203125" customWidth="1"/>
     <col min="2" max="2" width="13.73046875" customWidth="1"/>
     <col min="3" max="4" width="16.19921875" customWidth="1"/>
+    <col min="7" max="7" width="11.53125" customWidth="1"/>
+    <col min="8" max="8" width="18.59765625" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
       <c r="D1" s="3"/>
+      <c r="E1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="13"/>
     </row>
-    <row r="2" spans="1:5" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -531,10 +677,25 @@
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="E2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -543,10 +704,27 @@
         <v>6</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="str">
+        <f>"CM"</f>
+        <v>CM</v>
+      </c>
+      <c r="F3" s="2" t="str">
+        <f>"DS"</f>
+        <v>DS</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -557,10 +735,27 @@
         <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>9</v>
+        <v>41</v>
+      </c>
+      <c r="E4" s="2" t="str">
+        <f t="shared" ref="E4:E10" si="0">"CM"</f>
+        <v>CM</v>
+      </c>
+      <c r="F4" s="2" t="str">
+        <f t="shared" ref="F4:F10" si="1">"DS"</f>
+        <v>DS</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -573,11 +768,27 @@
       <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="8"/>
+      <c r="E5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>CM</v>
+      </c>
+      <c r="F5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DS</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
@@ -586,12 +797,29 @@
         <v>6</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="E6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>CM</v>
+      </c>
+      <c r="F6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DS</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2">
         <v>2</v>
@@ -600,12 +828,29 @@
         <v>6</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>CM</v>
+      </c>
+      <c r="F7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DS</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2">
         <v>6</v>
@@ -614,12 +859,29 @@
         <v>6</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="E8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>CM</v>
+      </c>
+      <c r="F8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DS</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2">
         <v>15</v>
@@ -628,26 +890,63 @@
         <v>6</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="E9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>CM</v>
+      </c>
+      <c r="F9" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DS</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2">
         <v>500</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="5"/>
+      <c r="E10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>CM</v>
+      </c>
+      <c r="F10" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DS</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:I1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/imports/Consumo.xlsx
+++ b/imports/Consumo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Limpieza\LIMPIEZA_APP\sop_lavado_app\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F21DCE0-6B14-46FE-8C66-394CF845684E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14E4ACB-D872-4B6A-AEC5-54D17AA6006A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,9 +68,6 @@
     <t>CM-DS-001</t>
   </si>
   <si>
-    <t>x 1m2 = 1 mL</t>
-  </si>
-  <si>
     <t>CM-DS-004</t>
   </si>
   <si>
@@ -161,9 +158,6 @@
     <t>uso</t>
   </si>
   <si>
-    <t>x 2m2 = 2 mL</t>
-  </si>
-  <si>
     <t>Consumo por área (m²)</t>
   </si>
   <si>
@@ -177,6 +171,12 @@
   </si>
   <si>
     <t>Consumo total solucion</t>
+  </si>
+  <si>
+    <t>x m2 = 1 mL</t>
+  </si>
+  <si>
+    <t>x m2 = 2 mL</t>
   </si>
 </sst>
 </file>
@@ -634,7 +634,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -655,12 +655,12 @@
       <c r="C1" s="9"/>
       <c r="D1" s="3"/>
       <c r="E1" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
       <c r="H1" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I1" s="13"/>
     </row>
@@ -678,19 +678,19 @@
         <v>4</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="G2" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
@@ -704,7 +704,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="E3" s="2" t="str">
         <f>"CM"</f>
@@ -715,13 +715,13 @@
         <v>DS</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
@@ -735,7 +735,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E4" s="2" t="str">
         <f t="shared" ref="E4:E10" si="0">"CM"</f>
@@ -746,13 +746,13 @@
         <v>DS</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
@@ -777,18 +777,18 @@
         <v>DS</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
@@ -797,7 +797,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" s="2" t="str">
         <f t="shared" si="0"/>
@@ -808,18 +808,18 @@
         <v>DS</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2">
         <v>2</v>
@@ -828,7 +828,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -839,18 +839,18 @@
         <v>DS</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2">
         <v>6</v>
@@ -859,7 +859,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2" t="str">
         <f t="shared" si="0"/>
@@ -870,18 +870,18 @@
         <v>DS</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2">
         <v>15</v>
@@ -890,7 +890,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" s="2" t="str">
         <f t="shared" si="0"/>
@@ -901,24 +901,24 @@
         <v>DS</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2">
         <v>500</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="2" t="str">
@@ -930,13 +930,13 @@
         <v>DS</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/imports/Consumo.xlsx
+++ b/imports/Consumo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Limpieza\LIMPIEZA_APP\sop_lavado_app\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14E4ACB-D872-4B6A-AEC5-54D17AA6006A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F73BA7F-F0D5-4FC2-A934-53F55D2173F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="50">
   <si>
     <t>BD</t>
   </si>
@@ -177,6 +177,15 @@
   </si>
   <si>
     <t>x m2 = 2 mL</t>
+  </si>
+  <si>
+    <t>CM-DS-009</t>
+  </si>
+  <si>
+    <t>= 8 mL</t>
+  </si>
+  <si>
+    <t>009</t>
   </si>
 </sst>
 </file>
@@ -306,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -344,6 +353,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -631,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection sqref="A1:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -738,11 +750,11 @@
         <v>46</v>
       </c>
       <c r="E4" s="2" t="str">
-        <f t="shared" ref="E4:E10" si="0">"CM"</f>
+        <f t="shared" ref="E4:E11" si="0">"CM"</f>
         <v>CM</v>
       </c>
       <c r="F4" s="2" t="str">
-        <f t="shared" ref="F4:F10" si="1">"DS"</f>
+        <f t="shared" ref="F4:F11" si="1">"DS"</f>
         <v>DS</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -939,6 +951,43 @@
         <v>44</v>
       </c>
     </row>
+    <row r="11" spans="1:9" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="14">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>CM</v>
+      </c>
+      <c r="F11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DS</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="13" spans="1:9" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="14" spans="1:9" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="15" spans="1:9" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="1:9" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
